--- a/biology/Botanique/Phymatosorus_scolopendria/Phymatosorus_scolopendria.xlsx
+++ b/biology/Botanique/Phymatosorus_scolopendria/Phymatosorus_scolopendria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phymatosorus scolopendria est une fougère de la famille des Polypodiaceae. Nommée metuapua’a en tahitien[1], elle est très utilisée dans la pharmacopée traditionnelle polynésienne ou comme ornement des costumes de danse. Ses rhizomes mal utilisés sont toxiques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phymatosorus scolopendria est une fougère de la famille des Polypodiaceae. Nommée metuapua’a en tahitien, elle est très utilisée dans la pharmacopée traditionnelle polynésienne ou comme ornement des costumes de danse. Ses rhizomes mal utilisés sont toxiques.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Microsorum scolopendria (Burm.f.) Copel.
 Phymatodes scolopendria (Burm.f.) Ching
